--- a/plan/test/結合テスト仕様書.xlsx
+++ b/plan/test/結合テスト仕様書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AD111AC-39ED-4E10-94FE-E3E07E97B9BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{693947C3-EA7A-4E14-AFB2-EB887E008829}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>作成者</t>
   </si>
@@ -152,13 +152,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>メニュー項目</t>
-    <rPh sb="4" eb="6">
-      <t>コウモク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>画面遷移確認</t>
     <rPh sb="0" eb="4">
       <t>ガメンセンイ</t>
@@ -169,70 +162,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>メッセージ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「エラー画面」と表示されている</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「エラー画面」と表示されている</t>
-    <rPh sb="0" eb="1">
-      <t>ショセキ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>エラーが発生しました。</t>
-    <rPh sb="4" eb="6">
-      <t>ハッセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「前へ戻る」と表示されている</t>
-    <rPh sb="1" eb="2">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>モド</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「前へ戻る」を押下</t>
-    <rPh sb="1" eb="2">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>モド</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>前の画面へ遷移すること</t>
-    <rPh sb="0" eb="1">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>事前条件</t>
     <rPh sb="0" eb="4">
       <t xml:space="preserve">ジゼンジョウケン </t>
@@ -246,6 +175,472 @@
     </rPh>
     <rPh sb="9" eb="11">
       <t xml:space="preserve">ギホウ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Fullness Stationery社 文具/雑貨販売システム</t>
+    <rPh sb="19" eb="20">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ブング</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ザッカ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ハンバイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>高良</t>
+    <rPh sb="0" eb="2">
+      <t>タカラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>日本証券テクノロジー</t>
+    <rPh sb="0" eb="4">
+      <t>ニホンショウケン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>注文ステータス更新(完了)</t>
+    <rPh sb="0" eb="2">
+      <t>チュウモン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・担当者ログインが終了している
+・「注文ステータス更新(確認)」画面から「登録」ボタンが押される。</t>
+    <rPh sb="18" eb="20">
+      <t>チュウモン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・画面表示項目、入力内容におけるシステムの挙動、画面推移について確認する</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>header</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「文具/雑貨販売システム」と表示されている</t>
+    <rPh sb="1" eb="3">
+      <t>ブング</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ザッカ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ハンバイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「商品情報メンテナンス」リンクが表示されている</t>
+    <rPh sb="1" eb="5">
+      <t>ショウヒンジョウホウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「商品カテゴリ登録」リンクが表示されている</t>
+    <rPh sb="1" eb="3">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「購入履歴検索」リンクが表示されている</t>
+    <rPh sb="1" eb="5">
+      <t>コウニュウリレキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「アカウント登録」リンクが表示されている</t>
+    <rPh sb="6" eb="8">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「ログアウト」ボタンが表示されている</t>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>footer</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「Fullness Stationery社」と表示されている</t>
+    <rPh sb="20" eb="21">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>body</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「購入履歴検索に戻る」リンクが表示されている</t>
+    <rPh sb="1" eb="7">
+      <t>コウニュウリレキケンサク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「確認」ボタンが表示されている</t>
+    <rPh sb="1" eb="3">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「メニューに戻る」ボリンクが表示されている</t>
+    <rPh sb="6" eb="7">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「商品情報メンテナンス」リンクを押下</t>
+    <rPh sb="1" eb="5">
+      <t>ショウヒンジョウホウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品検索画面へ遷移すること</t>
+    <rPh sb="0" eb="4">
+      <t>ショウヒンケンサク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「商品カテゴリ登録」リンクを押下</t>
+    <rPh sb="1" eb="3">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品カテゴリ登録(入力)画面へ遷移すること</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「購入履歴検索」リンクを押下</t>
+    <rPh sb="1" eb="5">
+      <t>コウニュウリレキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>購入履歴検索画面へ遷移すること</t>
+    <rPh sb="0" eb="2">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>リレキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「アカウント登録」リンクを押下</t>
+    <rPh sb="6" eb="8">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録(入力)画面へ遷移すること</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「ログアウト」を押下</t>
+    <rPh sb="8" eb="10">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログイン画面へ遷移すること</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「購入履歴検索に戻る」リンクを押下</t>
+    <rPh sb="1" eb="7">
+      <t>コウニュウリレキケンサク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>購入履歴検索画面へ遷移すること</t>
+    <rPh sb="0" eb="4">
+      <t>コウニュウリレキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「確認」を押下</t>
+    <rPh sb="1" eb="3">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>注文ステータス更新(確認)画面へ遷移すること</t>
+    <rPh sb="0" eb="2">
+      <t>チュウモン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「メニューに戻る」を押下</t>
+    <rPh sb="6" eb="7">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メニュー画面へ遷移すること</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「注文ステータス更新(完了)画面」と表示されている</t>
+    <rPh sb="1" eb="3">
+      <t>チュウモン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「注文ステータス更新(完了)」と表示されている</t>
+    <rPh sb="1" eb="3">
+      <t>チュウモン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>テーブルヘッダーに購入日時、顧客アカウント(氏名)、注文内容、ステータスが表示され、テーブルデータに注文ステータス更新する商品情報が表示されている
+ステータスには入金済みが表示されている</t>
+    <rPh sb="9" eb="13">
+      <t>コウニュウニチジ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>コキャク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>シメイ</t>
+    </rPh>
+    <rPh sb="26" eb="30">
+      <t>チュウモンナイヨウ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>チュウモン</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="81" eb="84">
+      <t>ニュウキンズ</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -320,7 +715,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -529,13 +924,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -582,63 +995,27 @@
     <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -654,19 +1031,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -678,8 +1046,80 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1031,10 +1471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
-  <dimension ref="A1:Q10"/>
+  <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15:L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1050,98 +1490,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="18" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="23"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="O1" s="2"/>
+      <c r="O1" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="P1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="Q1" s="3"/>
+      <c r="Q1" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="24" t="s">
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="29"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="43"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="10"/>
+      <c r="O2" s="10">
+        <v>45497</v>
+      </c>
       <c r="P2" s="11" t="s">
         <v>5</v>
       </c>
       <c r="Q2" s="12"/>
     </row>
-    <row r="3" spans="1:17" ht="14" customHeight="1">
-      <c r="A3" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="32"/>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="33"/>
+    <row r="3" spans="1:17" ht="36.5" customHeight="1">
+      <c r="A3" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="29"/>
+      <c r="C3" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="47"/>
     </row>
     <row r="4" spans="1:17" ht="14" customHeight="1">
-      <c r="A4" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="32"/>
-      <c r="P4" s="32"/>
-      <c r="Q4" s="33"/>
+      <c r="A4" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="29"/>
+      <c r="C4" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="47"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="14" t="s">
@@ -1150,20 +1604,20 @@
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="44" t="s">
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
       <c r="M5" s="14" t="s">
         <v>13</v>
       </c>
@@ -1173,156 +1627,568 @@
       <c r="O5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="44" t="s">
+      <c r="P5" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="45"/>
+      <c r="Q5" s="30"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" s="43"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="43"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
       <c r="M6" s="15"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="43"/>
-    </row>
-    <row r="7" spans="1:17" ht="11">
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+    </row>
+    <row r="7" spans="1:17" ht="11" customHeight="1">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="47"/>
-      <c r="C7" s="43" t="s">
+      <c r="B7" s="32"/>
+      <c r="C7" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
       <c r="M7" s="15"/>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
-      <c r="P7" s="43"/>
-      <c r="Q7" s="43"/>
-    </row>
-    <row r="8" spans="1:17" ht="11">
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+    </row>
+    <row r="8" spans="1:17" ht="11" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="39"/>
+      <c r="C8" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="27"/>
       <c r="M8" s="15"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="41"/>
-    </row>
-    <row r="9" spans="1:17" ht="11">
+      <c r="P8" s="16"/>
+      <c r="Q8" s="17"/>
+    </row>
+    <row r="9" spans="1:17" ht="11" customHeight="1">
       <c r="A9" s="6">
         <v>4</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
-      <c r="L9" s="39"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="27"/>
       <c r="M9" s="15"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="41"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="17"/>
     </row>
     <row r="10" spans="1:17" ht="13.5" customHeight="1">
       <c r="A10" s="6">
         <v>5</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43" t="s">
-        <v>26</v>
-      </c>
-      <c r="I10" s="43"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="43"/>
-      <c r="L10" s="43"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="27"/>
       <c r="M10" s="15"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
-      <c r="P10" s="43"/>
-      <c r="Q10" s="43"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="17"/>
+    </row>
+    <row r="11" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A11" s="6">
+        <v>6</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="17"/>
+    </row>
+    <row r="12" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A12" s="6">
+        <v>7</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="17"/>
+    </row>
+    <row r="13" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A13" s="6">
+        <v>8</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="17"/>
+    </row>
+    <row r="14" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A14" s="6">
+        <v>9</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="17"/>
+    </row>
+    <row r="15" spans="1:17" ht="71.5" customHeight="1">
+      <c r="A15" s="6">
+        <v>10</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="17"/>
+    </row>
+    <row r="16" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A16" s="6">
+        <v>11</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="17"/>
+    </row>
+    <row r="17" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A17" s="6">
+        <v>12</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="17"/>
+    </row>
+    <row r="18" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A18" s="6">
+        <v>13</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="17"/>
+    </row>
+    <row r="19" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A19" s="6">
+        <v>14</v>
+      </c>
+      <c r="B19" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="21"/>
+      <c r="Q19" s="21"/>
+    </row>
+    <row r="20" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A20" s="6">
+        <v>15</v>
+      </c>
+      <c r="B20" s="32"/>
+      <c r="C20" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="21"/>
+      <c r="Q20" s="21"/>
+    </row>
+    <row r="21" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A21" s="6">
+        <v>16</v>
+      </c>
+      <c r="B21" s="32"/>
+      <c r="C21" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="21"/>
+      <c r="Q21" s="21"/>
+    </row>
+    <row r="22" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A22" s="6">
+        <v>17</v>
+      </c>
+      <c r="B22" s="32"/>
+      <c r="C22" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="21"/>
+      <c r="Q22" s="21"/>
+    </row>
+    <row r="23" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A23" s="6">
+        <v>18</v>
+      </c>
+      <c r="B23" s="32"/>
+      <c r="C23" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="21"/>
+      <c r="Q23" s="21"/>
+    </row>
+    <row r="24" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A24" s="6">
+        <v>19</v>
+      </c>
+      <c r="B24" s="32"/>
+      <c r="C24" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="21"/>
+      <c r="Q24" s="21"/>
+    </row>
+    <row r="25" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A25" s="6">
+        <v>20</v>
+      </c>
+      <c r="B25" s="32"/>
+      <c r="C25" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="21"/>
+      <c r="Q25" s="21"/>
+    </row>
+    <row r="26" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A26" s="6">
+        <v>21</v>
+      </c>
+      <c r="B26" s="57"/>
+      <c r="C26" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="21"/>
+      <c r="Q26" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="P8:Q8"/>
+  <mergeCells count="58">
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="B19:B26"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="C15:G18"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:Q4"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:Q3"/>
-    <mergeCell ref="C9:G9"/>
     <mergeCell ref="H9:L9"/>
-    <mergeCell ref="P9:Q9"/>
     <mergeCell ref="P5:Q5"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:G6"/>
@@ -1332,11 +2198,13 @@
     <mergeCell ref="H7:L7"/>
     <mergeCell ref="P7:Q7"/>
     <mergeCell ref="C5:G5"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="C8:G13"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H13:L13"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>
